--- a/test/results/test_packed_attention.xlsx
+++ b/test/results/test_packed_attention.xlsx
@@ -501,10 +501,10 @@
         <v>0.002</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0234375</v>
+        <v>2.984375</v>
       </c>
       <c r="F2" t="n">
-        <v>557.19482421875</v>
+        <v>1742.402954101562</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.3189000571146607</v>
+        <v>0.3127687005326152</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -528,13 +528,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Packed MHA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>Packed MHA Attention</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1274622.625</v>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>bfloat16</t>
@@ -545,17 +553,11 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>InvalidGraph</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ONNXRuntimeError] : 10 : INVALID_GRAPH : Load model from dump/_test_packed_attention_model_cuda_bfloat16.packedMHA.onnx failed:This is an invalid model. Type Error: Type 'tensor(bfloat16)' of input parameter (query_2d__1) of operator (PackedMultiHeadAttention) in node (n59__1) is invalid.</t>
-        </is>
-      </c>
+      <c r="I3" t="n">
+        <v>0.09865703992545605</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -618,12 +620,12 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>InvalidGraph</t>
+          <t>NotImplemented</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[ONNXRuntimeError] : 10 : INVALID_GRAPH : Load model from dump/_test_packed_attention_model_cpu_bfloat16.packedMHA.onnx failed:This is an invalid model. Type Error: Type 'tensor(bfloat16)' of input parameter (query_2d__1) of operator (PackedMultiHeadAttention) in node (n59__1) is invalid.</t>
+          <t>[ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedMultiHeadAttention(1) node with name 'n59__1'</t>
         </is>
       </c>
     </row>
@@ -643,10 +645,10 @@
         <v>0.002</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002247467637062073</v>
+        <v>0.002304315567016602</v>
       </c>
       <c r="F6" t="n">
-        <v>42.60551071166992</v>
+        <v>117.1759567260742</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -659,7 +661,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.5527289034798741</v>
+        <v>0.5634545357897878</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -680,10 +682,10 @@
         <v>0.002</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002247467637062073</v>
+        <v>0.002139747142791748</v>
       </c>
       <c r="F7" t="n">
-        <v>42.60551071166992</v>
+        <v>117.1759567260742</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -696,7 +698,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.09693594556301832</v>
+        <v>0.09822996705770493</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -717,10 +719,10 @@
         <v>0.002</v>
       </c>
       <c r="E8" t="n">
-        <v>2.294778823852539e-06</v>
+        <v>2.264976501464844e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.226462721824646</v>
+        <v>0.1334676742553711</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -733,7 +735,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.8800732148811221</v>
+        <v>0.8751054676249623</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -792,7 +794,7 @@
         <v>0.001953125</v>
       </c>
       <c r="F10" t="n">
-        <v>72.625</v>
+        <v>13.359375</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -805,7 +807,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.6078005712479353</v>
+        <v>0.590076413936913</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -829,7 +831,7 @@
         <v>0.001953125</v>
       </c>
       <c r="F11" t="n">
-        <v>72.625</v>
+        <v>13.359375</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -842,7 +844,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.1735349409282207</v>
+        <v>0.09857350401580334</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -866,7 +868,7 @@
         <v>0.001953125</v>
       </c>
       <c r="F12" t="n">
-        <v>102.75</v>
+        <v>51.21875</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -879,7 +881,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1.476612321101129</v>
+        <v>1.488645365461707</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
